--- a/corr.xlsx
+++ b/corr.xlsx
@@ -1088,7 +1088,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,9 +1577,6 @@
       <c r="C10" t="s">
         <v>84</v>
       </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
       <c r="K10">
         <v>1</v>
       </c>
@@ -1590,6 +1587,9 @@
       </c>
       <c r="D11" t="s">
         <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
       </c>
       <c r="L11">
         <v>1</v>

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="107">
   <si>
     <t>1. Страна</t>
   </si>
@@ -1088,7 +1088,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3:I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,6 +1473,15 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -1487,6 +1496,15 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -1501,6 +1519,15 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1520,6 +1547,12 @@
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.25">
@@ -1535,8 +1568,14 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.25">
@@ -1552,6 +1591,12 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>1</v>
       </c>
@@ -1569,6 +1614,9 @@
       <c r="E9" t="s">
         <v>87</v>
       </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
       <c r="J9">
         <v>1</v>
       </c>
@@ -1591,6 +1639,12 @@
       <c r="F11" t="s">
         <v>86</v>
       </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
       <c r="L11">
         <v>1</v>
       </c>
@@ -1656,6 +1710,15 @@
       <c r="F15" t="s">
         <v>85</v>
       </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="s">
+        <v>85</v>
+      </c>
       <c r="J15" t="s">
         <v>85</v>
       </c>
@@ -1784,6 +1847,9 @@
       <c r="F25" t="s">
         <v>90</v>
       </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
       <c r="O25" s="4" t="s">
         <v>98</v>
       </c>
@@ -1807,6 +1873,12 @@
       <c r="E26" t="s">
         <v>92</v>
       </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
       <c r="N26" s="4" t="s">
         <v>101</v>
       </c>
@@ -1833,6 +1905,9 @@
       <c r="D27" t="s">
         <v>91</v>
       </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
       <c r="AB27">
         <v>1</v>
       </c>
@@ -1847,6 +1922,9 @@
       <c r="D28" t="s">
         <v>91</v>
       </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
       <c r="O28" t="s">
         <v>90</v>
       </c>
@@ -1887,6 +1965,15 @@
       <c r="F30" t="s">
         <v>91</v>
       </c>
+      <c r="G30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" t="s">
+        <v>91</v>
+      </c>
       <c r="O30" t="s">
         <v>86</v>
       </c>
@@ -1919,6 +2006,15 @@
       <c r="F31" t="s">
         <v>86</v>
       </c>
+      <c r="G31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" t="s">
+        <v>86</v>
+      </c>
       <c r="L31" s="4" t="s">
         <v>99</v>
       </c>
@@ -2485,6 +2581,9 @@
       <c r="D74" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="G74" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="L74" s="4" t="s">
         <v>99</v>
       </c>
@@ -2506,6 +2605,9 @@
         <v>59</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>95</v>
       </c>
       <c r="N75" s="4" t="s">

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="107">
   <si>
     <t>1. Страна</t>
   </si>
@@ -1088,7 +1088,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:I78"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,11 +1636,17 @@
       <c r="D11" t="s">
         <v>85</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F11" t="s">
         <v>86</v>
       </c>
       <c r="G11" t="s">
         <v>85</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I11" t="s">
         <v>86</v>

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="107">
   <si>
     <t>1. Страна</t>
   </si>
@@ -1085,10 +1085,10 @@
   <dimension ref="A1:CA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:79" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>37</v>
       </c>
@@ -2471,8 +2471,20 @@
       <c r="C64" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="E64" t="s">
+        <v>90</v>
+      </c>
+      <c r="H64" t="s">
+        <v>90</v>
+      </c>
+      <c r="K64" t="s">
+        <v>91</v>
+      </c>
       <c r="P64" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>91</v>
       </c>
       <c r="AK64" s="4" t="s">
         <v>102</v>
@@ -2587,11 +2599,26 @@
       <c r="D74" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="E74" t="s">
+        <v>94</v>
+      </c>
       <c r="G74" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J74" t="s">
+        <v>94</v>
+      </c>
+      <c r="K74" t="s">
+        <v>85</v>
+      </c>
       <c r="L74" s="4" t="s">
         <v>99</v>
+      </c>
+      <c r="M74" t="s">
+        <v>94</v>
       </c>
       <c r="P74" s="4" t="s">
         <v>99</v>
@@ -2613,8 +2640,26 @@
       <c r="D75" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="E75" t="s">
+        <v>94</v>
+      </c>
       <c r="G75" s="4" t="s">
         <v>95</v>
+      </c>
+      <c r="H75" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" t="s">
+        <v>94</v>
+      </c>
+      <c r="K75" t="s">
+        <v>85</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M75" t="s">
+        <v>94</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>99</v>
@@ -2642,8 +2687,20 @@
       <c r="AL76">
         <v>1</v>
       </c>
+      <c r="BJ76" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP76" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV76" t="s">
+        <v>91</v>
+      </c>
       <c r="BY76">
         <v>1</v>
+      </c>
+      <c r="CA76" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="2:79" x14ac:dyDescent="0.25">

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="107">
   <si>
     <t>1. Страна</t>
   </si>
@@ -1088,7 +1088,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67:CA72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,10 +2525,10 @@
       <c r="C67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AH67">
-        <v>1</v>
-      </c>
-      <c r="BP67">
+      <c r="AG67">
+        <v>1</v>
+      </c>
+      <c r="BJ67">
         <v>1</v>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="C68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BQ68">
+      <c r="BK68">
         <v>1</v>
       </c>
     </row>
@@ -2544,7 +2544,10 @@
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BR69">
+      <c r="P69" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL69">
         <v>1</v>
       </c>
     </row>
@@ -2552,15 +2555,39 @@
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BS70">
-        <v>1</v>
+      <c r="E70" t="s">
+        <v>90</v>
+      </c>
+      <c r="H70" t="s">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s">
+        <v>91</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM70">
+        <v>1</v>
+      </c>
+      <c r="CA70" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="2:79" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BT71">
+      <c r="P71" t="s">
+        <v>86</v>
+      </c>
+      <c r="BN71">
         <v>1</v>
       </c>
     </row>
@@ -2568,7 +2595,10 @@
       <c r="C72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BU72">
+      <c r="P72" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO72">
         <v>1</v>
       </c>
     </row>

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -1085,10 +1085,10 @@
   <dimension ref="A1:CA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67:CA72"/>
+      <selection pane="bottomRight" activeCell="BL69" sqref="BJ67:BL69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,9 +2441,6 @@
       <c r="C61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AG61">
-        <v>1</v>
-      </c>
       <c r="BJ61">
         <v>1</v>
       </c>
@@ -2525,10 +2522,7 @@
       <c r="C67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AG67">
-        <v>1</v>
-      </c>
-      <c r="BJ67">
+      <c r="BP67">
         <v>1</v>
       </c>
     </row>
@@ -2536,7 +2530,7 @@
       <c r="C68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BK68">
+      <c r="BQ68">
         <v>1</v>
       </c>
     </row>
@@ -2547,7 +2541,7 @@
       <c r="P69" t="s">
         <v>88</v>
       </c>
-      <c r="BL69">
+      <c r="BR69">
         <v>1</v>
       </c>
     </row>
@@ -2573,7 +2567,7 @@
       <c r="AK70" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="BM70">
+      <c r="BS70">
         <v>1</v>
       </c>
       <c r="CA70" t="s">
@@ -2587,7 +2581,7 @@
       <c r="P71" t="s">
         <v>86</v>
       </c>
-      <c r="BN71">
+      <c r="BT71">
         <v>1</v>
       </c>
     </row>
@@ -2598,7 +2592,7 @@
       <c r="P72" t="s">
         <v>91</v>
       </c>
-      <c r="BO72">
+      <c r="BU72">
         <v>1</v>
       </c>
     </row>
@@ -2609,9 +2603,6 @@
       <c r="C73" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AI73">
-        <v>1</v>
-      </c>
       <c r="BV73">
         <v>1</v>
       </c>
@@ -2645,16 +2636,13 @@
         <v>85</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M74" t="s">
         <v>94</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ74">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="BW74">
         <v>1</v>
@@ -2686,16 +2674,13 @@
         <v>85</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M75" t="s">
         <v>94</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AK75">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="BX75">
         <v>1</v>
@@ -2709,13 +2694,10 @@
         <v>59</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL76">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="BJ76" t="s">
         <v>90</v>
@@ -2740,9 +2722,6 @@
       <c r="C77" t="s">
         <v>58</v>
       </c>
-      <c r="AM77">
-        <v>1</v>
-      </c>
       <c r="BZ77">
         <v>1</v>
       </c>
@@ -2753,9 +2732,6 @@
       </c>
       <c r="C78" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="AN78" s="1">
-        <v>1</v>
       </c>
       <c r="CA78">
         <v>1</v>

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -1085,10 +1085,10 @@
   <dimension ref="A1:CA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BF56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BL69" sqref="BJ67:BL69"/>
+      <selection pane="bottomRight" activeCell="AM70" sqref="AM70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2484,7 +2484,7 @@
         <v>91</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BM64">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>91</v>
       </c>
       <c r="AK70" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BS70">
         <v>1</v>

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="106">
   <si>
     <t>1. Страна</t>
   </si>
@@ -715,9 +715,6 @@
   </si>
   <si>
     <t>-0.7</t>
-  </si>
-  <si>
-    <t>-0.9</t>
   </si>
   <si>
     <t>-0.6</t>
@@ -1088,7 +1085,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="BF56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM70" sqref="AM70"/>
+      <selection pane="bottomRight" activeCell="BW69" sqref="BW69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1634,7 @@
         <v>85</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
         <v>86</v>
@@ -1646,7 +1643,7 @@
         <v>85</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
         <v>86</v>
@@ -1680,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:79" x14ac:dyDescent="0.25">
@@ -1729,7 +1726,7 @@
         <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
         <v>85</v>
@@ -1738,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s">
         <v>86</v>
@@ -1758,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="BZ16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:79" x14ac:dyDescent="0.25">
@@ -1808,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="CA20" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:79" x14ac:dyDescent="0.25">
@@ -1860,13 +1857,13 @@
         <v>98</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="CA25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:79" ht="45" x14ac:dyDescent="0.25">
@@ -1886,7 +1883,7 @@
         <v>92</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O26" t="s">
         <v>92</v>
@@ -1898,10 +1895,10 @@
         <v>1</v>
       </c>
       <c r="AK26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="CA26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:79" ht="30" x14ac:dyDescent="0.25">
@@ -1990,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="CA30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.25">
@@ -2028,7 +2025,7 @@
         <v>99</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q31" t="s">
         <v>85</v>
@@ -2037,7 +2034,7 @@
         <v>99</v>
       </c>
       <c r="CA31" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.25">
@@ -2076,13 +2073,13 @@
         <v>55</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q34" t="s">
         <v>85</v>
@@ -2119,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="CA36" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:79" x14ac:dyDescent="0.25">
@@ -2363,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="CA56" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:79" ht="45" x14ac:dyDescent="0.25">
@@ -2374,16 +2371,16 @@
         <v>91</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BF57">
         <v>1</v>
       </c>
       <c r="CA57" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:79" x14ac:dyDescent="0.25">
@@ -2397,7 +2394,7 @@
         <v>88</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK58" s="4" t="s">
         <v>99</v>
@@ -2406,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="CA58" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="2:79" ht="45" x14ac:dyDescent="0.25">
@@ -2417,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="CA59" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="2:79" ht="30" x14ac:dyDescent="0.25">
@@ -2478,19 +2475,19 @@
         <v>91</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q64" t="s">
         <v>91</v>
       </c>
       <c r="AK64" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BM64">
         <v>1</v>
       </c>
       <c r="CA64" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="2:79" x14ac:dyDescent="0.25">
@@ -2559,19 +2556,19 @@
         <v>91</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q70" t="s">
         <v>91</v>
       </c>
       <c r="AK70" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BS70">
         <v>1</v>
       </c>
       <c r="CA70" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="2:79" x14ac:dyDescent="0.25">
@@ -2607,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="CA73" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="2:79" x14ac:dyDescent="0.25">
@@ -2636,13 +2633,13 @@
         <v>85</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M74" t="s">
         <v>94</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BW74">
         <v>1</v>
@@ -2674,13 +2671,13 @@
         <v>85</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M75" t="s">
         <v>94</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BX75">
         <v>1</v>
@@ -2694,10 +2691,10 @@
         <v>59</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BJ76" t="s">
         <v>90</v>
@@ -2712,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="CA76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="2:79" x14ac:dyDescent="0.25">

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:CA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BF56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BW69" sqref="BW69"/>
+      <selection pane="bottomRight" activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,7 +2495,7 @@
         <v>72</v>
       </c>
       <c r="P65" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="BN65">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>73</v>
       </c>
       <c r="P66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BO66">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>70</v>
       </c>
       <c r="P69" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BR69">
         <v>1</v>
@@ -2576,7 +2576,7 @@
         <v>72</v>
       </c>
       <c r="P71" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="BT71">
         <v>1</v>
@@ -2587,7 +2587,7 @@
         <v>73</v>
       </c>
       <c r="P72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BU72">
         <v>1</v>
@@ -2630,7 +2630,7 @@
         <v>94</v>
       </c>
       <c r="K74" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>105</v>
@@ -2639,7 +2639,7 @@
         <v>94</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BW74">
         <v>1</v>
@@ -2668,7 +2668,7 @@
         <v>94</v>
       </c>
       <c r="K75" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>105</v>

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="106">
   <si>
     <t>1. Страна</t>
   </si>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:CA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BJ57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q74" sqref="Q74"/>
+      <selection pane="bottomRight" activeCell="CA78" sqref="CA78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,11 +1754,8 @@
       <c r="Q16">
         <v>1</v>
       </c>
-      <c r="BZ16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -1772,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>43</v>
       </c>
@@ -1783,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>44</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -1804,11 +1801,8 @@
       <c r="U20">
         <v>1</v>
       </c>
-      <c r="CA20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>46</v>
       </c>
@@ -1816,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>47</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>48</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>49</v>
       </c>
@@ -1840,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -1862,11 +1856,8 @@
       <c r="Z25">
         <v>1</v>
       </c>
-      <c r="CA25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
@@ -1897,11 +1888,8 @@
       <c r="AK26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CA26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1918,7 +1906,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:79" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
@@ -1938,7 +1926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>54</v>
       </c>
@@ -1952,7 +1940,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -1986,11 +1974,8 @@
       <c r="AE30">
         <v>1</v>
       </c>
-      <c r="CA30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2033,11 +2018,8 @@
       <c r="AK31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CA31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -2115,9 +2097,7 @@
       <c r="AK36">
         <v>1</v>
       </c>
-      <c r="CA36" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="CA36" s="4"/>
     </row>
     <row r="37" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -2254,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>22</v>
       </c>
@@ -2265,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>23</v>
       </c>
@@ -2276,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>24</v>
       </c>
@@ -2287,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>25</v>
       </c>
@@ -2301,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>26</v>
       </c>
@@ -2315,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:61" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>27</v>
       </c>
@@ -2332,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:61" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
         <v>62</v>
       </c>
@@ -2346,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:79" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:61" ht="45" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
         <v>63</v>
       </c>
@@ -2359,11 +2339,8 @@
       <c r="BE56">
         <v>1</v>
       </c>
-      <c r="CA56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="2:79" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:61" ht="45" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
         <v>64</v>
       </c>
@@ -2379,11 +2356,8 @@
       <c r="BF57">
         <v>1</v>
       </c>
-      <c r="CA57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="2:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
         <v>65</v>
       </c>
@@ -2402,22 +2376,16 @@
       <c r="BG58">
         <v>1</v>
       </c>
-      <c r="CA58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="2:79" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:61" ht="45" x14ac:dyDescent="0.25">
       <c r="C59" s="3" t="s">
         <v>66</v>
       </c>
       <c r="BH59">
         <v>1</v>
       </c>
-      <c r="CA59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:61" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="3" t="s">
         <v>67</v>
       </c>
@@ -2431,86 +2399,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:79" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BJ61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:79" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BK62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:79" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:61" ht="30" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P63" t="s">
-        <v>88</v>
-      </c>
-      <c r="BL63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:79" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:61" ht="45" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E64" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" t="s">
-        <v>90</v>
-      </c>
-      <c r="K64" t="s">
-        <v>91</v>
-      </c>
-      <c r="P64" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK64" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM64">
-        <v>1</v>
-      </c>
-      <c r="CA64" t="s">
-        <v>91</v>
-      </c>
+      <c r="P64" s="4"/>
+      <c r="AK64" s="4"/>
     </row>
     <row r="65" spans="2:79" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P65" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN65">
-        <v>1</v>
-      </c>
     </row>
     <row r="66" spans="2:79" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P66" t="s">
-        <v>90</v>
-      </c>
-      <c r="BO66">
-        <v>1</v>
-      </c>
     </row>
     <row r="67" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -2519,79 +2441,33 @@
       <c r="C67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BP67">
-        <v>1</v>
-      </c>
     </row>
     <row r="68" spans="2:79" x14ac:dyDescent="0.25">
       <c r="C68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BQ68">
-        <v>1</v>
-      </c>
     </row>
     <row r="69" spans="2:79" ht="30" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P69" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR69">
-        <v>1</v>
-      </c>
     </row>
     <row r="70" spans="2:79" ht="45" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E70" t="s">
-        <v>90</v>
-      </c>
-      <c r="H70" t="s">
-        <v>90</v>
-      </c>
-      <c r="K70" t="s">
-        <v>91</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BS70">
-        <v>1</v>
-      </c>
-      <c r="CA70" t="s">
-        <v>91</v>
-      </c>
+      <c r="P70" s="4"/>
+      <c r="AK70" s="4"/>
     </row>
     <row r="71" spans="2:79" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P71" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT71">
-        <v>1</v>
-      </c>
     </row>
     <row r="72" spans="2:79" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P72" t="s">
-        <v>90</v>
-      </c>
-      <c r="BU72">
-        <v>1</v>
-      </c>
     </row>
     <row r="73" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
@@ -2600,12 +2476,6 @@
       <c r="C73" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BV73">
-        <v>1</v>
-      </c>
-      <c r="CA73" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="74" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
@@ -2614,36 +2484,10 @@
       <c r="C74" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H74" t="s">
-        <v>94</v>
-      </c>
-      <c r="J74" t="s">
-        <v>94</v>
-      </c>
-      <c r="K74" t="s">
-        <v>90</v>
-      </c>
-      <c r="L74" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M74" t="s">
-        <v>94</v>
-      </c>
-      <c r="P74" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BW74">
-        <v>1</v>
-      </c>
+      <c r="D74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="P74" s="4"/>
     </row>
     <row r="75" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
@@ -2652,36 +2496,10 @@
       <c r="C75" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H75" t="s">
-        <v>94</v>
-      </c>
-      <c r="J75" t="s">
-        <v>94</v>
-      </c>
-      <c r="K75" t="s">
-        <v>90</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M75" t="s">
-        <v>94</v>
-      </c>
-      <c r="N75" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BX75">
-        <v>1</v>
-      </c>
+      <c r="D75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="N75" s="4"/>
     </row>
     <row r="76" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
@@ -2690,27 +2508,8 @@
       <c r="C76" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L76" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BJ76" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP76" t="s">
-        <v>90</v>
-      </c>
-      <c r="BV76" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY76">
-        <v>1</v>
-      </c>
-      <c r="CA76" t="s">
-        <v>90</v>
-      </c>
+      <c r="L76" s="4"/>
+      <c r="N76" s="4"/>
     </row>
     <row r="77" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -2719,9 +2518,6 @@
       <c r="C77" t="s">
         <v>58</v>
       </c>
-      <c r="BZ77">
-        <v>1</v>
-      </c>
     </row>
     <row r="78" spans="2:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
@@ -2730,9 +2526,7 @@
       <c r="C78" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="CA78">
-        <v>1</v>
-      </c>
+      <c r="CA78"/>
     </row>
     <row r="79" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>

--- a/corr.xlsx
+++ b/corr.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="106">
   <si>
     <t>1. Страна</t>
   </si>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:CA79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BJ57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CA78" sqref="CA78"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1094,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f ca="1">MDETERM($D$3:INDIRECT("R"&amp;$B$1+2&amp;"C"&amp;$B$1+3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -1225,6 +1232,10 @@
       </c>
     </row>
     <row r="2" spans="1:79" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f ca="1">INDIRECT("R"&amp;$B$1+3&amp;"C"&amp;$B$1+4,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
@@ -1465,18 +1476,30 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>-0.95</v>
+      </c>
+      <c r="K3">
+        <v>-0.9</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
     </row>
@@ -1485,21 +1508,33 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>0.95</v>
+      </c>
+      <c r="K4">
+        <v>-0.9</v>
+      </c>
+      <c r="L4">
+        <v>-0.95</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
@@ -1508,22 +1543,34 @@
         <v>39</v>
       </c>
       <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>-0.95</v>
+      </c>
+      <c r="K5">
+        <v>-0.9</v>
+      </c>
+      <c r="L5">
+        <v>0.7</v>
+      </c>
+      <c r="M5">
         <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.25">
@@ -1537,18 +1584,30 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>-0.95</v>
+      </c>
+      <c r="K6">
+        <v>-0.9</v>
+      </c>
+      <c r="L6">
+        <v>0.8</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
@@ -1557,21 +1616,33 @@
         <v>41</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>0.95</v>
+      </c>
+      <c r="K7">
+        <v>-0.9</v>
+      </c>
+      <c r="L7">
+        <v>-0.95</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
@@ -1580,22 +1651,34 @@
         <v>82</v>
       </c>
       <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-0.95</v>
+      </c>
+      <c r="K8">
+        <v>-0.9</v>
+      </c>
+      <c r="L8">
+        <v>0.7</v>
+      </c>
+      <c r="M8">
         <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.25">
@@ -1608,53 +1691,137 @@
       <c r="C9" t="s">
         <v>83</v>
       </c>
-      <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" t="s">
-        <v>87</v>
+      <c r="D9">
+        <v>-0.95</v>
+      </c>
+      <c r="E9">
+        <v>0.95</v>
+      </c>
+      <c r="F9">
+        <v>-0.95</v>
+      </c>
+      <c r="G9">
+        <v>-0.95</v>
+      </c>
+      <c r="H9">
+        <v>0.95</v>
+      </c>
+      <c r="I9">
+        <v>-0.95</v>
       </c>
       <c r="J9">
         <v>1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>84</v>
       </c>
+      <c r="D10">
+        <v>-0.9</v>
+      </c>
+      <c r="E10">
+        <v>-0.9</v>
+      </c>
+      <c r="F10">
+        <v>-0.9</v>
+      </c>
+      <c r="G10">
+        <v>-0.9</v>
+      </c>
+      <c r="H10">
+        <v>-0.9</v>
+      </c>
+      <c r="I10">
+        <v>-0.9</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
       <c r="K10">
         <v>1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>75</v>
       </c>
-      <c r="D11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" t="s">
-        <v>86</v>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>-0.95</v>
+      </c>
+      <c r="F11">
+        <v>0.7</v>
+      </c>
+      <c r="G11">
+        <v>0.8</v>
+      </c>
+      <c r="H11">
+        <v>-0.95</v>
+      </c>
+      <c r="I11">
+        <v>0.7</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
       </c>
       <c r="L11">
         <v>1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>77</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
       </c>
       <c r="M12">
         <v>1</v>
